--- a/Order/PO1020624.xlsx
+++ b/Order/PO1020624.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="29328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\SEG\docs\Order\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{22E3227E-09D4-D043-BCC9-76111BE2D52E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFE420DA-7571-443D-BE94-4765B8ED23BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Number</t>
   </si>
@@ -126,7 +126,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$Rp-3809]* #,##0.00_-;\-[$Rp-3809]* #,##0.00_-;_-[$Rp-3809]* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -440,41 +440,41 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -896,30 +896,30 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.01171875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="8.609375" style="2" customWidth="1"/>
-    <col min="2" max="2" width="43.31640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="26.09765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.9453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="39.953125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="20.71484375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="40.48828125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="9.14453125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="8.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="26.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="24" style="4" customWidth="1"/>
+    <col min="5" max="5" width="40" style="5" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="40.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="E1" s="4"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8">
       <c r="E2" s="4"/>
       <c r="G2" s="6"/>
     </row>
-    <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1" x14ac:dyDescent="0.65">
+    <row r="3" spans="1:8" s="1" customFormat="1" ht="104.25" customHeight="1">
       <c r="A3" s="7"/>
       <c r="B3" s="8" t="s">
         <v>17</v>
@@ -931,11 +931,11 @@
       <c r="G3" s="10"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="34.5" customHeight="1">
       <c r="E4" s="4"/>
       <c r="G4" s="4"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8">
       <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
@@ -949,80 +949,80 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B6" s="29" t="s">
+    <row r="6" spans="1:8">
+      <c r="B6" s="31" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="29"/>
-      <c r="D6" s="29" t="s">
+      <c r="C6" s="31"/>
+      <c r="D6" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="29"/>
-      <c r="F6" s="29"/>
-      <c r="G6" s="29"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B7" s="32" t="s">
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="B7" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32" t="s">
+      <c r="C7" s="33"/>
+      <c r="D7" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="32"/>
-      <c r="F7" s="32"/>
-      <c r="G7" s="32"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B9" s="29" t="s">
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="B8" s="33"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="B9" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B10" s="30"/>
-      <c r="C10" s="30"/>
-      <c r="D10" s="36" t="s">
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B11" s="29" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="37"/>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="B11" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="36"/>
-      <c r="F11" s="36"/>
-      <c r="G11" s="36"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B12" s="31"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-    </row>
-    <row r="13" spans="1:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="C11" s="31"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="37"/>
+      <c r="F12" s="37"/>
+      <c r="G12" s="37"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" customHeight="1"/>
+    <row r="14" spans="1:8">
       <c r="B14" s="14" t="s">
         <v>6</v>
       </c>
@@ -1036,8 +1036,8 @@
       <c r="F14" s="17"/>
       <c r="G14" s="17"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B15" s="37">
+    <row r="15" spans="1:8">
+      <c r="B15" s="29">
         <f>SUM(G18:G19)</f>
         <v>0</v>
       </c>
@@ -1049,7 +1049,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:7">
       <c r="B17" s="14" t="s">
         <v>9</v>
       </c>
@@ -1069,39 +1069,39 @@
         <v>13</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:7">
       <c r="B18" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="C18" s="39" t="s">
+      <c r="C18" s="38" t="s">
         <v>24</v>
       </c>
       <c r="D18" s="18">
         <v>1</v>
       </c>
-      <c r="E18" s="38"/>
+      <c r="E18" s="30"/>
       <c r="F18" s="20"/>
-      <c r="G18" s="38">
+      <c r="G18" s="30">
         <f t="shared" ref="G18:G19" si="0">(E18*D18) - ((E18*D18) * F18)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:7">
       <c r="B19" s="21" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="40"/>
+      <c r="C19" s="39"/>
       <c r="D19" s="18">
         <v>1</v>
       </c>
-      <c r="E19" s="38"/>
+      <c r="E19" s="30"/>
       <c r="F19" s="20"/>
-      <c r="G19" s="38">
+      <c r="G19" s="30">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:7">
       <c r="B21" s="22"/>
       <c r="C21" s="23"/>
       <c r="D21" s="23"/>
@@ -1109,24 +1109,24 @@
       <c r="F21" s="23"/>
       <c r="G21" s="24"/>
     </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:7">
       <c r="B22" s="27" t="s">
         <v>14</v>
       </c>
       <c r="E22" s="4"/>
       <c r="G22" s="26"/>
     </row>
-    <row r="23" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:7" ht="30.75" customHeight="1">
       <c r="B23" s="25"/>
       <c r="E23" s="4"/>
       <c r="G23" s="26"/>
     </row>
-    <row r="24" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:7" ht="30.75" customHeight="1">
       <c r="B24" s="25"/>
       <c r="E24" s="4"/>
       <c r="G24" s="26"/>
     </row>
-    <row r="25" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:7" ht="15.75" customHeight="1">
       <c r="B25" s="25" t="s">
         <v>15</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="F25" s="16"/>
       <c r="G25" s="28"/>
     </row>
-    <row r="26" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:7" ht="15.75" customHeight="1">
       <c r="B26" s="25"/>
       <c r="C26" s="16"/>
       <c r="D26" s="16"/>
@@ -1144,35 +1144,40 @@
       <c r="F26" s="16"/>
       <c r="G26" s="28"/>
     </row>
-    <row r="27" spans="2:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:7" ht="22.5" customHeight="1">
       <c r="B27" s="25"/>
       <c r="E27" s="4"/>
       <c r="G27" s="26"/>
     </row>
-    <row r="28" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="33" t="s">
+    <row r="28" spans="2:7" ht="15.75" customHeight="1">
+      <c r="B28" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-    </row>
-    <row r="29" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="35"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+    </row>
+    <row r="29" spans="2:7" ht="15.75" customHeight="1">
       <c r="E29" s="4"/>
       <c r="G29" s="4"/>
     </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7">
       <c r="E30" s="4"/>
       <c r="G30" s="4"/>
     </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7">
       <c r="E31" s="4"/>
       <c r="G31" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:G6"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:G9"/>
+    <mergeCell ref="B10:C10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B28:G28"/>
@@ -1180,11 +1185,6 @@
     <mergeCell ref="D7:G8"/>
     <mergeCell ref="B7:C8"/>
     <mergeCell ref="C18:C19"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:G6"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:G9"/>
-    <mergeCell ref="B10:C10"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape"/>
